--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2698.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2698.xlsx
@@ -354,7 +354,7 @@
         <v>2.415603868740688</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>2.337970482590899</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2698.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2698.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.16437770803576</v>
+        <v>0.7822278738021851</v>
       </c>
       <c r="B1">
-        <v>2.415603868740688</v>
+        <v>1.247182250022888</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>3.148746252059937</v>
       </c>
       <c r="D1">
-        <v>2.337970482590899</v>
+        <v>3.121608018875122</v>
       </c>
       <c r="E1">
-        <v>1.216153839308577</v>
+        <v>1.722864985466003</v>
       </c>
     </row>
   </sheetData>
